--- a/public/template/clothing_template.xlsx
+++ b/public/template/clothing_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\clothing-management-system\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7326A3F-2CDF-426F-9491-8F799C47FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A409B8-385B-4DFF-853F-AA3E539C5818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,48 +51,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓库位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-135-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-135-7</t>
-  </si>
-  <si>
     <t>冬季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冬服</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S: 46
+M: 45
+L: 50
+XL: 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码与数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S: 46
+M: 45
+L: 50
+XL: 51</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>S: 46
+M: 45
+L: 50
+XL: 52</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>S: 46
+M: 45
+L: 50
+XL: 53</t>
+  </si>
+  <si>
+    <t>2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,28 +200,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,109 +500,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="4" width="11.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>35</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2">
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>35</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
